--- a/1.LabOOP/Excell tests/Lab1_2-Test-All.xlsx
+++ b/1.LabOOP/Excell tests/Lab1_2-Test-All.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="84">
   <si>
     <t>№</t>
   </si>
@@ -273,6 +273,15 @@
     <t>Error!
 После
 True</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>на границе</t>
   </si>
 </sst>
 </file>
@@ -668,6 +677,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,10 +782,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,102 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -1296,7 +1305,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -1305,12 +1314,12 @@
       <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -1319,12 +1328,12 @@
       <c r="C17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1333,12 +1342,12 @@
       <c r="C18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1347,12 +1356,12 @@
       <c r="C19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -1361,12 +1370,12 @@
       <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -1375,12 +1384,12 @@
       <c r="C21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -1389,21 +1398,21 @@
       <c r="C22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1417,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="155" workbookViewId="0">
-      <selection activeCell="X11" sqref="X8:X11"/>
+    <sheetView zoomScale="155" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1486,7 @@
       <c r="P1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="36" t="s">
         <v>61</v>
       </c>
       <c r="R1" s="10" t="s">
@@ -1492,18 +1501,18 @@
       <c r="U1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="49">
+      <c r="X1" s="42">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1548,16 +1557,16 @@
       <c r="Q2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="48" t="s">
+      <c r="R2" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="41" t="s">
         <v>37</v>
       </c>
       <c r="V2" s="8" t="s">
@@ -1571,7 +1580,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1606,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1630,7 @@
       <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1645,7 +1654,7 @@
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1715,7 +1724,7 @@
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
@@ -1741,28 +1750,28 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="53" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="40" t="s">
+      <c r="G8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="11" t="s">
@@ -1771,10 +1780,10 @@
       <c r="L8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="40" t="s">
+      <c r="M8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="33" t="s">
         <v>37</v>
       </c>
       <c r="O8" s="11" t="s">
@@ -1795,37 +1804,37 @@
       <c r="U8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="41" t="s">
+      <c r="V8" s="34" t="s">
         <v>37</v>
       </c>
       <c r="W8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="50" t="s">
+      <c r="X8" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="40" t="s">
+      <c r="G9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -1834,10 +1843,10 @@
       <c r="L9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="40" t="s">
+      <c r="M9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="33" t="s">
         <v>37</v>
       </c>
       <c r="O9" s="11" t="s">
@@ -1858,34 +1867,34 @@
       <c r="U9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="41" t="s">
+      <c r="V9" s="34" t="s">
         <v>37</v>
       </c>
       <c r="W9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="50" t="s">
+      <c r="X9" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="41" t="s">
+      <c r="C10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -1894,10 +1903,10 @@
       <c r="L10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="41" t="s">
+      <c r="M10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="34" t="s">
         <v>37</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -1915,40 +1924,40 @@
       <c r="U10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="41" t="s">
+      <c r="V10" s="34" t="s">
         <v>37</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="50" t="s">
+      <c r="X10" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="41" t="s">
+      <c r="C11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="34" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="8" t="s">
@@ -1960,16 +1969,16 @@
       <c r="T11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V11" s="41" t="s">
+      <c r="V11" s="34" t="s">
         <v>37</v>
       </c>
       <c r="W11" s="11"/>
-      <c r="X11" s="50" t="s">
+      <c r="X11" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1984,19 +1993,19 @@
       <c r="G12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="40" t="s">
+      <c r="J12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -2005,13 +2014,13 @@
       <c r="N12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="41" t="s">
+      <c r="O12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="34" t="s">
         <v>37</v>
       </c>
       <c r="S12" s="8" t="s">
@@ -2026,7 +2035,7 @@
       <c r="V12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="40" t="s">
+      <c r="W12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="X12" s="12" t="s">
@@ -2034,7 +2043,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="16" t="s">
         <v>32</v>
       </c>
@@ -2047,19 +2056,19 @@
       <c r="G13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="33" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="40" t="s">
+      <c r="J13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="33" t="s">
         <v>37</v>
       </c>
       <c r="M13" s="11" t="s">
@@ -2068,13 +2077,13 @@
       <c r="N13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="41" t="s">
+      <c r="O13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="34" t="s">
         <v>37</v>
       </c>
       <c r="R13" s="8" t="s">
@@ -2089,7 +2098,7 @@
       <c r="V13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="40" t="s">
+      <c r="W13" s="33" t="s">
         <v>37</v>
       </c>
       <c r="X13" s="12" t="s">
@@ -2097,7 +2106,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
@@ -2106,28 +2115,28 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="33" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="40" t="s">
+      <c r="J14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="33" t="s">
         <v>37</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="41" t="s">
+      <c r="O14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="34" t="s">
         <v>37</v>
       </c>
       <c r="R14" s="8" t="s">
@@ -2139,72 +2148,72 @@
       <c r="U14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="40" t="s">
+      <c r="W14" s="33" t="s">
         <v>37</v>
       </c>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="W15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X15" s="53" t="s">
+      <c r="C15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2224,25 +2233,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="33" customWidth="1"/>
-    <col min="3" max="15" width="4.140625" style="33" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="33" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="2" width="18" style="26" customWidth="1"/>
+    <col min="3" max="15" width="4.140625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="26" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:24" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="17">
@@ -2287,36 +2296,36 @@
       <c r="P1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="51">
+      <c r="X1" s="44">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2349,29 +2358,29 @@
         <v>37</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="55" t="s">
+      <c r="Q2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="27"/>
+      <c r="X2" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5"/>
@@ -2394,18 +2403,18 @@
       <c r="P3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="V3" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="35"/>
+      <c r="Q3" s="27"/>
+      <c r="V3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5"/>
@@ -2424,17 +2433,17 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
+      <c r="Q4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="5"/>
@@ -2451,17 +2460,17 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="35"/>
+      <c r="Q5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="28"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="5"/>
@@ -2476,17 +2485,17 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="56" t="s">
+      <c r="Q6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2517,182 +2526,188 @@
       <c r="P7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="34"/>
-      <c r="X7" s="54" t="s">
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="27"/>
+      <c r="X7" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="35"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="28"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="35"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="28"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
     </row>
     <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="57" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="A12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="O13" s="34"/>
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="O14" s="34"/>
+      <c r="A14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
